--- a/medicine/Enfance/Bertrand_Santini/Bertrand_Santini.xlsx
+++ b/medicine/Enfance/Bertrand_Santini/Bertrand_Santini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertrand Santini est un auteur, scénariste et illustrateur français né à Aix-en-Provence en 1968.
-Ses livres ont remporté plusieurs prix en littérature jeunesse, notamment son roman "Le Yark" paru chez Grasset Jeunesse en 2011, traduit en 19 langues[1], ainsi que la série à succès[2] "Le Journal de Gurty" parue aux éditions Sarbacane[3].
-En 2018, la New York Public Library a sélectionné "Le Yark" parmi les meilleurs livres jeunesse de l'année[4].
-En 2020, Bertrand Santini publie « Le Flocon » chez Gallimard Jeunesse. Remarqué par la critique[5],[6],[7],[8], ce conte philosophique inspiré d’un texte du mathématicien Johann Kepler est illustré par Laurent Gapaillard[9] avec lequel l'auteur avait déjà collaboré sur Le Yark.
-L'association Les Petits Champions de la lecture ont classé Le Journal de Gurty en troisième position des livres les plus lus par les enfants en classe, après Le petit Prince et Harry Potter[10].
-Fin 2022, les éditions Sarbacane annoncent que "Le Journal de Gurty" atteint les 500 000 ventes[2],[11].
+Ses livres ont remporté plusieurs prix en littérature jeunesse, notamment son roman "Le Yark" paru chez Grasset Jeunesse en 2011, traduit en 19 langues, ainsi que la série à succès "Le Journal de Gurty" parue aux éditions Sarbacane.
+En 2018, la New York Public Library a sélectionné "Le Yark" parmi les meilleurs livres jeunesse de l'année.
+En 2020, Bertrand Santini publie « Le Flocon » chez Gallimard Jeunesse. Remarqué par la critique ce conte philosophique inspiré d’un texte du mathématicien Johann Kepler est illustré par Laurent Gapaillard avec lequel l'auteur avait déjà collaboré sur Le Yark.
+L'association Les Petits Champions de la lecture ont classé Le Journal de Gurty en troisième position des livres les plus lus par les enfants en classe, après Le petit Prince et Harry Potter.
+Fin 2022, les éditions Sarbacane annoncent que "Le Journal de Gurty" atteint les 500 000 ventes,.
 </t>
         </is>
       </c>
